--- a/6_promwad2_step_by_step/Docs/планы.xlsx
+++ b/6_promwad2_step_by_step/Docs/планы.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -165,7 +165,13 @@
     <t xml:space="preserve">Устранение баги конфигуратора — некорректное добавление номера — при добавлении новой станции добавляется не номер максимальный + 1 а номер после последней в списке </t>
   </si>
   <si>
+    <t xml:space="preserve">Устранено в 11 этапе</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дизайн конфигуратора — переделать все меню и выпадающие окна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При передаче в конфигуратор зашифрованной прошивки (к которой добавлен хеш ) ключ вводить не требуется и меняется алгоритм формирования и передачи  на пульт новой прошивки (нужно например чтобы  можно было передавать Заказчику зашифрованнуб прошивку и он не зная ключа пультов мог обновлять прошивку )</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -522,13 +528,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="75.34"/>
@@ -670,46 +676,72 @@
       <c r="C13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="n">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>15</v>
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="27.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="29" t="s">
+    <row r="15" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C15" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="27.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="18" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>30</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/6_promwad2_step_by_step/Docs/планы.xlsx
+++ b/6_promwad2_step_by_step/Docs/планы.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -162,10 +162,13 @@
     <t xml:space="preserve">Эта задача сродни предыдущей — нужно будет разработать протокол обмена между конфигуратором и пультом</t>
   </si>
   <si>
-    <t xml:space="preserve">Устранение баги конфигуратора — некорректное добавление номера — при добавлении новой станции добавляется не номер максимальный + 1 а номер после последней в списке </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Устранено в 11 этапе</t>
+    <t xml:space="preserve">Клавиши вызова (симплекс или дуплекс) не всегда реагируют на нажатие, приходится нажимать несколько раз для вызова абонента.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При быстром нажатии клавиш (вызов одного абонент, а затем быстром нажатии вызова другого абонента) пульт не вызывает другого абонента, а в фиксированном положение продолжает связи с предыдущим в режиме дуплекс.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">После перезагрузки пультов по питанию, три из пяти не загрузились. То есть этот пульты можно вызвать, а с него вызов не проходит. Индикация «НОРМА» не горит, клавиши не реагируют на нажатие. </t>
   </si>
   <si>
     <t xml:space="preserve">Дизайн конфигуратора — переделать все меню и выпадающие окна</t>
@@ -326,7 +329,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,6 +440,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -528,13 +535,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="75.34"/>
@@ -666,82 +673,86 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="27"/>
     </row>
-    <row r="13" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="n">
+    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="15" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5" t="n">
+    </row>
+    <row r="16" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="n">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="27.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="29" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="27.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="B20" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="C20" s="19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="D20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="19" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>32</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/6_promwad2_step_by_step/Docs/планы.xlsx
+++ b/6_promwad2_step_by_step/Docs/планы.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -38,13 +38,10 @@
     <t xml:space="preserve">Примечание</t>
   </si>
   <si>
-    <t xml:space="preserve">Январь</t>
+    <t xml:space="preserve">Январь (17)</t>
   </si>
   <si>
     <t xml:space="preserve">Отображение времени работы каждого процесса (для диагностики в консоли — нам нужно точно знать загрузку проца во всех режимах)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-5 дней</t>
   </si>
   <si>
     <t xml:space="preserve">По итогам возможно получим возможность выбрать более слабый проц</t>
@@ -73,31 +70,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">10 дней</t>
-  </si>
-  <si>
     <t xml:space="preserve">В свойствах кнопок необходимо определить настройки по умолчанию. Очень много занимает времени конфигурация одной симплексной связи.</t>
   </si>
   <si>
-    <t xml:space="preserve">4  дня</t>
-  </si>
-  <si>
     <t xml:space="preserve">Да и окно подогнать под размер экрана, перетаскивание всего окна от списка станций к функциям станций – это конечно то еще удовольствие.</t>
   </si>
   <si>
-    <t xml:space="preserve">1 день, если возможно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Может вообще не реализуемо динамическое изменение для данного конфигуратора скорее всего фиксированный размер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Февраль</t>
+    <t xml:space="preserve">Нужно  более точное ТЗ — под какой размер экрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Февраль  (19)</t>
   </si>
   <si>
     <t xml:space="preserve">Создание протокола для передачи между пультами  сигнализации и данных (по аналогии с немецким)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 -20 дней в зависимости от ТЗ</t>
   </si>
   <si>
     <t xml:space="preserve">При условии что это будет наш протокол, реализуемый поверх UDP. Eсли  реализовывать существующий протокол или привязывать устройства (Modbus) то существенно дольше</t>
@@ -156,46 +141,34 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">10  дней</t>
-  </si>
-  <si>
     <t xml:space="preserve">Эта задача сродни предыдущей — нужно будет разработать протокол обмена между конфигуратором и пультом</t>
   </si>
   <si>
+    <t xml:space="preserve">Март  (22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дизайн конфигуратора — переделать все меню и выпадающие окна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При передаче в конфигуратор зашифрованной прошивки (к которой добавлен хеш ) ключ вводить не требуется и меняется алгоритм формирования и передачи  на пульт новой прошивки (нужно например чтобы  можно было передавать Заказчику зашифрованнуб прошивку и он не зная ключа пультов мог обновлять прошивку )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Замеч 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Клавиши вызова (симплекс или дуплекс) не всегда реагируют на нажатие, приходится нажимать несколько раз для вызова абонента.</t>
   </si>
   <si>
+    <t xml:space="preserve">Замеч 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">При быстром нажатии клавиш (вызов одного абонент, а затем быстром нажатии вызова другого абонента) пульт не вызывает другого абонента, а в фиксированном положение продолжает связи с предыдущим в режиме дуплекс.</t>
   </si>
   <si>
+    <t xml:space="preserve">Замеч 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">После перезагрузки пультов по питанию, три из пяти не загрузились. То есть этот пульты можно вызвать, а с него вызов не проходит. Индикация «НОРМА» не горит, клавиши не реагируют на нажатие. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дизайн конфигуратора — переделать все меню и выпадающие окна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При передаче в конфигуратор зашифрованной прошивки (к которой добавлен хеш ) ключ вводить не требуется и меняется алгоритм формирования и передачи  на пульт новой прошивки (нужно например чтобы  можно было передавать Заказчику зашифрованнуб прошивку и он не зная ключа пультов мог обновлять прошивку )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDKV — создание на внешнем сервере архива сообщений и интерфейс работы с архивом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 -3 мес в зависимости от ТЗ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если будет необходимость</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый интерфейс конфигуратора (Муромский)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-3 мес </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Я все же склоняюсь продолжать Белорусский конфигуратор и доводить его до ума</t>
   </si>
 </sst>
 </file>
@@ -262,7 +235,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +260,12 @@
         <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -329,7 +308,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,20 +421,56 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -513,7 +528,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -535,15 +550,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="75.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="49.18"/>
@@ -583,22 +598,22 @@
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="139.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="148.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>10</v>
       </c>
       <c r="D5" s="15"/>
     </row>
@@ -607,25 +622,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,123 +652,115 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
     </row>
-    <row r="10" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="23" t="n">
+        <v>10</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="85.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="23" t="n">
+        <v>9</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="27"/>
     </row>
-    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="B14" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>17</v>
+      </c>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="n">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="5" t="n">
+      <c r="B15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="4"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="27.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>33</v>
-      </c>
+    <row r="19" customFormat="false" ht="37.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
